--- a/data/SOAP_2025_plan.xlsx
+++ b/data/SOAP_2025_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2025_winter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ADC03D-E596-4444-848C-199108A42D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F32EEDC-6B87-4FD8-A204-5CDD7C298A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{E40B840D-8429-4970-ADCC-D0241BE16052}"/>
   </bookViews>
@@ -1191,269 +1191,269 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="4">
-        <f>D12+66</f>
+        <f t="shared" ref="D10:D20" si="2">D12+66</f>
         <v>397</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:AJ10" si="2">E12+66</f>
+        <f t="shared" ref="E10:AJ10" si="3">E12+66</f>
         <v>398</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>399</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>401</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>402</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>403</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>404</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>405</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>406</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>407</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>408</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>409</v>
       </c>
       <c r="Q10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>410</v>
       </c>
       <c r="R10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>411</v>
       </c>
       <c r="S10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>412</v>
       </c>
       <c r="T10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>413</v>
       </c>
       <c r="U10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>414</v>
       </c>
       <c r="V10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>415</v>
       </c>
       <c r="W10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>416</v>
       </c>
       <c r="X10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>417</v>
       </c>
       <c r="Y10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>418</v>
       </c>
       <c r="Z10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>419</v>
       </c>
       <c r="AA10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>420</v>
       </c>
       <c r="AB10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>421</v>
       </c>
       <c r="AC10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>422</v>
       </c>
       <c r="AD10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>423</v>
       </c>
       <c r="AE10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>424</v>
       </c>
       <c r="AF10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>425</v>
       </c>
       <c r="AG10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>426</v>
       </c>
       <c r="AH10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>427</v>
       </c>
       <c r="AI10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>428</v>
       </c>
       <c r="AJ10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>429</v>
       </c>
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
       <c r="AM10" s="4">
-        <f>AM12+66</f>
+        <f t="shared" ref="AM10:AM20" si="4">AM12+66</f>
         <v>397</v>
       </c>
       <c r="AN10" s="4">
-        <f t="shared" ref="AN10:BS10" si="3">AN12+66</f>
+        <f t="shared" ref="AN10:BS10" si="5">AN12+66</f>
         <v>398</v>
       </c>
       <c r="AO10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>399</v>
       </c>
       <c r="AP10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="AQ10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>401</v>
       </c>
       <c r="AR10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>402</v>
       </c>
       <c r="AS10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>403</v>
       </c>
       <c r="AT10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>404</v>
       </c>
       <c r="AU10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>405</v>
       </c>
       <c r="AV10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>406</v>
       </c>
       <c r="AW10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>407</v>
       </c>
       <c r="AX10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>408</v>
       </c>
       <c r="AY10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>409</v>
       </c>
       <c r="AZ10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>410</v>
       </c>
       <c r="BA10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>411</v>
       </c>
       <c r="BB10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>412</v>
       </c>
       <c r="BC10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>413</v>
       </c>
       <c r="BD10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>414</v>
       </c>
       <c r="BE10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>415</v>
       </c>
       <c r="BF10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>416</v>
       </c>
       <c r="BG10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>417</v>
       </c>
       <c r="BH10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>418</v>
       </c>
       <c r="BI10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>419</v>
       </c>
       <c r="BJ10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>420</v>
       </c>
       <c r="BK10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>421</v>
       </c>
       <c r="BL10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>422</v>
       </c>
       <c r="BM10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>423</v>
       </c>
       <c r="BN10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>424</v>
       </c>
       <c r="BO10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>425</v>
       </c>
       <c r="BP10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>426</v>
       </c>
       <c r="BQ10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>427</v>
       </c>
       <c r="BR10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>428</v>
       </c>
       <c r="BS10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>429</v>
       </c>
       <c r="BT10" s="8"/>
@@ -1463,269 +1463,269 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="4">
-        <f>D13+66</f>
+        <f t="shared" si="2"/>
         <v>396</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" ref="E11:AJ11" si="4">E13+66</f>
+        <f t="shared" ref="E11:AJ11" si="6">E13+66</f>
         <v>395</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>394</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>393</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>392</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>391</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>389</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>388</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>387</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>386</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>385</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>384</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>383</v>
       </c>
       <c r="R11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>382</v>
       </c>
       <c r="S11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>381</v>
       </c>
       <c r="T11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>380</v>
       </c>
       <c r="U11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>379</v>
       </c>
       <c r="V11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>378</v>
       </c>
       <c r="W11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>377</v>
       </c>
       <c r="X11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>376</v>
       </c>
       <c r="Y11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>375</v>
       </c>
       <c r="Z11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>374</v>
       </c>
       <c r="AA11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>373</v>
       </c>
       <c r="AB11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>372</v>
       </c>
       <c r="AC11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>371</v>
       </c>
       <c r="AD11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>370</v>
       </c>
       <c r="AE11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>369</v>
       </c>
       <c r="AF11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>368</v>
       </c>
       <c r="AG11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>367</v>
       </c>
       <c r="AH11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>366</v>
       </c>
       <c r="AI11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>365</v>
       </c>
       <c r="AJ11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>364</v>
       </c>
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
       <c r="AM11" s="4">
-        <f>AM13+66</f>
+        <f t="shared" si="4"/>
         <v>396</v>
       </c>
       <c r="AN11" s="4">
-        <f t="shared" ref="AN11:BS11" si="5">AN13+66</f>
+        <f t="shared" ref="AN11:BS11" si="7">AN13+66</f>
         <v>395</v>
       </c>
       <c r="AO11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>394</v>
       </c>
       <c r="AP11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>393</v>
       </c>
       <c r="AQ11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>392</v>
       </c>
       <c r="AR11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>391</v>
       </c>
       <c r="AS11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>390</v>
       </c>
       <c r="AT11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>389</v>
       </c>
       <c r="AU11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>388</v>
       </c>
       <c r="AV11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>387</v>
       </c>
       <c r="AW11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>386</v>
       </c>
       <c r="AX11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>385</v>
       </c>
       <c r="AY11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>384</v>
       </c>
       <c r="AZ11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>383</v>
       </c>
       <c r="BA11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>382</v>
       </c>
       <c r="BB11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>381</v>
       </c>
       <c r="BC11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>380</v>
       </c>
       <c r="BD11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>379</v>
       </c>
       <c r="BE11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>378</v>
       </c>
       <c r="BF11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>377</v>
       </c>
       <c r="BG11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>376</v>
       </c>
       <c r="BH11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>375</v>
       </c>
       <c r="BI11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>374</v>
       </c>
       <c r="BJ11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>373</v>
       </c>
       <c r="BK11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>372</v>
       </c>
       <c r="BL11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>371</v>
       </c>
       <c r="BM11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>370</v>
       </c>
       <c r="BN11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>369</v>
       </c>
       <c r="BO11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>368</v>
       </c>
       <c r="BP11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>367</v>
       </c>
       <c r="BQ11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>366</v>
       </c>
       <c r="BR11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>365</v>
       </c>
       <c r="BS11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>364</v>
       </c>
       <c r="BT11" s="8"/>
@@ -1735,269 +1735,269 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="4">
-        <f>D14+66</f>
+        <f t="shared" si="2"/>
         <v>331</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" ref="E12:AJ12" si="6">E14+66</f>
+        <f t="shared" ref="E12:AJ12" si="8">E14+66</f>
         <v>332</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>333</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>334</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>335</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>336</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>337</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>339</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>340</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>341</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>342</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>343</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>344</v>
       </c>
       <c r="R12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>345</v>
       </c>
       <c r="S12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>346</v>
       </c>
       <c r="T12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>347</v>
       </c>
       <c r="U12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>348</v>
       </c>
       <c r="V12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>349</v>
       </c>
       <c r="W12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>350</v>
       </c>
       <c r="X12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>351</v>
       </c>
       <c r="Y12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>352</v>
       </c>
       <c r="Z12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>353</v>
       </c>
       <c r="AA12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>354</v>
       </c>
       <c r="AB12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>355</v>
       </c>
       <c r="AC12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>356</v>
       </c>
       <c r="AD12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>357</v>
       </c>
       <c r="AE12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>358</v>
       </c>
       <c r="AF12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>359</v>
       </c>
       <c r="AG12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>360</v>
       </c>
       <c r="AH12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>361</v>
       </c>
       <c r="AI12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>362</v>
       </c>
       <c r="AJ12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>363</v>
       </c>
       <c r="AK12" s="8"/>
       <c r="AL12" s="8"/>
       <c r="AM12" s="4">
-        <f>AM14+66</f>
+        <f t="shared" si="4"/>
         <v>331</v>
       </c>
       <c r="AN12" s="4">
-        <f t="shared" ref="AN12:BS19" si="7">AN14+66</f>
+        <f t="shared" ref="AN12:BS19" si="9">AN14+66</f>
         <v>332</v>
       </c>
       <c r="AO12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>333</v>
       </c>
       <c r="AP12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>334</v>
       </c>
       <c r="AQ12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>335</v>
       </c>
       <c r="AR12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>336</v>
       </c>
       <c r="AS12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>337</v>
       </c>
       <c r="AT12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>338</v>
       </c>
       <c r="AU12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>339</v>
       </c>
       <c r="AV12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>340</v>
       </c>
       <c r="AW12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>341</v>
       </c>
       <c r="AX12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>342</v>
       </c>
       <c r="AY12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>343</v>
       </c>
       <c r="AZ12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>344</v>
       </c>
       <c r="BA12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>345</v>
       </c>
       <c r="BB12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>346</v>
       </c>
       <c r="BC12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>347</v>
       </c>
       <c r="BD12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>348</v>
       </c>
       <c r="BE12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>349</v>
       </c>
       <c r="BF12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>350</v>
       </c>
       <c r="BG12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>351</v>
       </c>
       <c r="BH12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>352</v>
       </c>
       <c r="BI12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>353</v>
       </c>
       <c r="BJ12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>354</v>
       </c>
       <c r="BK12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>355</v>
       </c>
       <c r="BL12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>356</v>
       </c>
       <c r="BM12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>357</v>
       </c>
       <c r="BN12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>358</v>
       </c>
       <c r="BO12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>359</v>
       </c>
       <c r="BP12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>360</v>
       </c>
       <c r="BQ12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>361</v>
       </c>
       <c r="BR12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>362</v>
       </c>
       <c r="BS12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>363</v>
       </c>
       <c r="BT12" s="8"/>
@@ -2007,269 +2007,269 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="4">
-        <f>D15+66</f>
+        <f t="shared" si="2"/>
         <v>330</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" ref="E13:AJ20" si="8">E15+66</f>
+        <f t="shared" ref="E13:AJ20" si="10">E15+66</f>
         <v>329</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>328</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>327</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>326</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>325</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>324</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>323</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>322</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>321</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>320</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>319</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>318</v>
       </c>
       <c r="Q13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>317</v>
       </c>
       <c r="R13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>316</v>
       </c>
       <c r="S13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>315</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>314</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>313</v>
       </c>
       <c r="V13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>312</v>
       </c>
       <c r="W13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>311</v>
       </c>
       <c r="X13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>310</v>
       </c>
       <c r="Y13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>309</v>
       </c>
       <c r="Z13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>308</v>
       </c>
       <c r="AA13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>307</v>
       </c>
       <c r="AB13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="AC13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>305</v>
       </c>
       <c r="AD13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>304</v>
       </c>
       <c r="AE13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>303</v>
       </c>
       <c r="AF13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>302</v>
       </c>
       <c r="AG13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>301</v>
       </c>
       <c r="AH13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="AI13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>299</v>
       </c>
       <c r="AJ13" s="4">
-        <f t="shared" ref="AJ13" si="9">AJ15+66</f>
+        <f t="shared" ref="AJ13" si="11">AJ15+66</f>
         <v>298</v>
       </c>
       <c r="AK13" s="8"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="4">
-        <f>AM15+66</f>
+        <f t="shared" si="4"/>
         <v>330</v>
       </c>
       <c r="AN13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>329</v>
       </c>
       <c r="AO13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>328</v>
       </c>
       <c r="AP13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>327</v>
       </c>
       <c r="AQ13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>326</v>
       </c>
       <c r="AR13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>325</v>
       </c>
       <c r="AS13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>324</v>
       </c>
       <c r="AT13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>323</v>
       </c>
       <c r="AU13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>322</v>
       </c>
       <c r="AV13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>321</v>
       </c>
       <c r="AW13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>320</v>
       </c>
       <c r="AX13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>319</v>
       </c>
       <c r="AY13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>318</v>
       </c>
       <c r="AZ13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>317</v>
       </c>
       <c r="BA13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>316</v>
       </c>
       <c r="BB13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>315</v>
       </c>
       <c r="BC13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>314</v>
       </c>
       <c r="BD13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>313</v>
       </c>
       <c r="BE13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>312</v>
       </c>
       <c r="BF13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>311</v>
       </c>
       <c r="BG13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>310</v>
       </c>
       <c r="BH13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>309</v>
       </c>
       <c r="BI13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>308</v>
       </c>
       <c r="BJ13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>307</v>
       </c>
       <c r="BK13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>306</v>
       </c>
       <c r="BL13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>305</v>
       </c>
       <c r="BM13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>304</v>
       </c>
       <c r="BN13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>303</v>
       </c>
       <c r="BO13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>302</v>
       </c>
       <c r="BP13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>301</v>
       </c>
       <c r="BQ13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="BR13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>299</v>
       </c>
       <c r="BS13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>298</v>
       </c>
       <c r="BT13" s="8"/>
@@ -2279,269 +2279,269 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="4">
-        <f>D16+66</f>
+        <f t="shared" si="2"/>
         <v>265</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>266</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>267</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>268</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>269</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>270</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>271</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>272</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>273</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>274</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>275</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>276</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>277</v>
       </c>
       <c r="Q14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>278</v>
       </c>
       <c r="R14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>279</v>
       </c>
       <c r="S14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>280</v>
       </c>
       <c r="T14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>281</v>
       </c>
       <c r="U14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>282</v>
       </c>
       <c r="V14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>283</v>
       </c>
       <c r="W14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>284</v>
       </c>
       <c r="X14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>285</v>
       </c>
       <c r="Y14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>286</v>
       </c>
       <c r="Z14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>287</v>
       </c>
       <c r="AA14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>288</v>
       </c>
       <c r="AB14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>289</v>
       </c>
       <c r="AC14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="AD14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>291</v>
       </c>
       <c r="AE14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="AF14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>293</v>
       </c>
       <c r="AG14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>294</v>
       </c>
       <c r="AH14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>295</v>
       </c>
       <c r="AI14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>296</v>
       </c>
       <c r="AJ14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>297</v>
       </c>
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
       <c r="AM14" s="4">
-        <f>AM16+66</f>
+        <f t="shared" si="4"/>
         <v>265</v>
       </c>
       <c r="AN14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>266</v>
       </c>
       <c r="AO14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>267</v>
       </c>
       <c r="AP14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>268</v>
       </c>
       <c r="AQ14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>269</v>
       </c>
       <c r="AR14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>270</v>
       </c>
       <c r="AS14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>271</v>
       </c>
       <c r="AT14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>272</v>
       </c>
       <c r="AU14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>273</v>
       </c>
       <c r="AV14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>274</v>
       </c>
       <c r="AW14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>275</v>
       </c>
       <c r="AX14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>276</v>
       </c>
       <c r="AY14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>277</v>
       </c>
       <c r="AZ14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>278</v>
       </c>
       <c r="BA14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>279</v>
       </c>
       <c r="BB14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>280</v>
       </c>
       <c r="BC14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>281</v>
       </c>
       <c r="BD14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>282</v>
       </c>
       <c r="BE14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>283</v>
       </c>
       <c r="BF14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>284</v>
       </c>
       <c r="BG14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>285</v>
       </c>
       <c r="BH14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>286</v>
       </c>
       <c r="BI14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>287</v>
       </c>
       <c r="BJ14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>288</v>
       </c>
       <c r="BK14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>289</v>
       </c>
       <c r="BL14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>290</v>
       </c>
       <c r="BM14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>291</v>
       </c>
       <c r="BN14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="BO14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>293</v>
       </c>
       <c r="BP14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>294</v>
       </c>
       <c r="BQ14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>295</v>
       </c>
       <c r="BR14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>296</v>
       </c>
       <c r="BS14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>297</v>
       </c>
       <c r="BT14" s="8"/>
@@ -2551,269 +2551,269 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="4">
-        <f>D17+66</f>
+        <f t="shared" si="2"/>
         <v>264</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>263</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>262</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>261</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>260</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>259</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>258</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>257</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>256</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>255</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>254</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>253</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>252</v>
       </c>
       <c r="Q15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>251</v>
       </c>
       <c r="R15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>250</v>
       </c>
       <c r="S15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>249</v>
       </c>
       <c r="T15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>248</v>
       </c>
       <c r="U15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>247</v>
       </c>
       <c r="V15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>246</v>
       </c>
       <c r="W15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>245</v>
       </c>
       <c r="X15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>244</v>
       </c>
       <c r="Y15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>243</v>
       </c>
       <c r="Z15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>242</v>
       </c>
       <c r="AA15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>241</v>
       </c>
       <c r="AB15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>240</v>
       </c>
       <c r="AC15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>239</v>
       </c>
       <c r="AD15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>238</v>
       </c>
       <c r="AE15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>237</v>
       </c>
       <c r="AF15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>236</v>
       </c>
       <c r="AG15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>235</v>
       </c>
       <c r="AH15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>234</v>
       </c>
       <c r="AI15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>233</v>
       </c>
       <c r="AJ15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>232</v>
       </c>
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
       <c r="AM15" s="4">
-        <f>AM17+66</f>
+        <f t="shared" si="4"/>
         <v>264</v>
       </c>
       <c r="AN15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>263</v>
       </c>
       <c r="AO15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>262</v>
       </c>
       <c r="AP15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>261</v>
       </c>
       <c r="AQ15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>260</v>
       </c>
       <c r="AR15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>259</v>
       </c>
       <c r="AS15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>258</v>
       </c>
       <c r="AT15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>257</v>
       </c>
       <c r="AU15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>256</v>
       </c>
       <c r="AV15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>255</v>
       </c>
       <c r="AW15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>254</v>
       </c>
       <c r="AX15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>253</v>
       </c>
       <c r="AY15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>252</v>
       </c>
       <c r="AZ15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>251</v>
       </c>
       <c r="BA15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>250</v>
       </c>
       <c r="BB15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>249</v>
       </c>
       <c r="BC15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>248</v>
       </c>
       <c r="BD15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>247</v>
       </c>
       <c r="BE15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>246</v>
       </c>
       <c r="BF15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>245</v>
       </c>
       <c r="BG15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>244</v>
       </c>
       <c r="BH15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>243</v>
       </c>
       <c r="BI15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>242</v>
       </c>
       <c r="BJ15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>241</v>
       </c>
       <c r="BK15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>240</v>
       </c>
       <c r="BL15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>239</v>
       </c>
       <c r="BM15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>238</v>
       </c>
       <c r="BN15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>237</v>
       </c>
       <c r="BO15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>236</v>
       </c>
       <c r="BP15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>235</v>
       </c>
       <c r="BQ15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>234</v>
       </c>
       <c r="BR15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>233</v>
       </c>
       <c r="BS15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>232</v>
       </c>
       <c r="BT15" s="8"/>
@@ -2823,269 +2823,269 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="4">
-        <f>D18+66</f>
+        <f t="shared" si="2"/>
         <v>199</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>201</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>202</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>203</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>204</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>205</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>206</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>207</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>208</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>209</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>210</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>211</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>212</v>
       </c>
       <c r="R16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>213</v>
       </c>
       <c r="S16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>214</v>
       </c>
       <c r="T16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>215</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>216</v>
       </c>
       <c r="V16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>217</v>
       </c>
       <c r="W16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>218</v>
       </c>
       <c r="X16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>219</v>
       </c>
       <c r="Y16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>220</v>
       </c>
       <c r="Z16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>221</v>
       </c>
       <c r="AA16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>222</v>
       </c>
       <c r="AB16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>223</v>
       </c>
       <c r="AC16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>224</v>
       </c>
       <c r="AD16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>225</v>
       </c>
       <c r="AE16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>226</v>
       </c>
       <c r="AF16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>227</v>
       </c>
       <c r="AG16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>228</v>
       </c>
       <c r="AH16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>229</v>
       </c>
       <c r="AI16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>230</v>
       </c>
       <c r="AJ16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>231</v>
       </c>
       <c r="AK16" s="8"/>
       <c r="AL16" s="8"/>
       <c r="AM16" s="4">
-        <f>AM18+66</f>
+        <f t="shared" si="4"/>
         <v>199</v>
       </c>
       <c r="AN16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="AO16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>201</v>
       </c>
       <c r="AP16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>202</v>
       </c>
       <c r="AQ16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>203</v>
       </c>
       <c r="AR16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>204</v>
       </c>
       <c r="AS16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>205</v>
       </c>
       <c r="AT16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>206</v>
       </c>
       <c r="AU16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>207</v>
       </c>
       <c r="AV16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>208</v>
       </c>
       <c r="AW16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>209</v>
       </c>
       <c r="AX16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>210</v>
       </c>
       <c r="AY16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>211</v>
       </c>
       <c r="AZ16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>212</v>
       </c>
       <c r="BA16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>213</v>
       </c>
       <c r="BB16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>214</v>
       </c>
       <c r="BC16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>215</v>
       </c>
       <c r="BD16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>216</v>
       </c>
       <c r="BE16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>217</v>
       </c>
       <c r="BF16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>218</v>
       </c>
       <c r="BG16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>219</v>
       </c>
       <c r="BH16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>220</v>
       </c>
       <c r="BI16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>221</v>
       </c>
       <c r="BJ16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>222</v>
       </c>
       <c r="BK16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>223</v>
       </c>
       <c r="BL16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>224</v>
       </c>
       <c r="BM16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>225</v>
       </c>
       <c r="BN16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>226</v>
       </c>
       <c r="BO16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>227</v>
       </c>
       <c r="BP16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>228</v>
       </c>
       <c r="BQ16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>229</v>
       </c>
       <c r="BR16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>230</v>
       </c>
       <c r="BS16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>231</v>
       </c>
       <c r="BT16" s="8"/>
@@ -3095,269 +3095,269 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="4">
-        <f>D19+66</f>
+        <f t="shared" si="2"/>
         <v>198</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>197</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>196</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>195</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>194</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>193</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>192</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>191</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>190</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>189</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>188</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>187</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>186</v>
       </c>
       <c r="Q17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>185</v>
       </c>
       <c r="R17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>184</v>
       </c>
       <c r="S17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>183</v>
       </c>
       <c r="T17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>182</v>
       </c>
       <c r="U17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>181</v>
       </c>
       <c r="V17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>180</v>
       </c>
       <c r="W17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>179</v>
       </c>
       <c r="X17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>178</v>
       </c>
       <c r="Y17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>177</v>
       </c>
       <c r="Z17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>176</v>
       </c>
       <c r="AA17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>175</v>
       </c>
       <c r="AB17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>174</v>
       </c>
       <c r="AC17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>173</v>
       </c>
       <c r="AD17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>172</v>
       </c>
       <c r="AE17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>171</v>
       </c>
       <c r="AF17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>170</v>
       </c>
       <c r="AG17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>169</v>
       </c>
       <c r="AH17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>168</v>
       </c>
       <c r="AI17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>167</v>
       </c>
       <c r="AJ17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>166</v>
       </c>
       <c r="AK17" s="8"/>
       <c r="AL17" s="8"/>
       <c r="AM17" s="4">
-        <f>AM19+66</f>
+        <f t="shared" si="4"/>
         <v>198</v>
       </c>
       <c r="AN17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>197</v>
       </c>
       <c r="AO17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>196</v>
       </c>
       <c r="AP17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>195</v>
       </c>
       <c r="AQ17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>194</v>
       </c>
       <c r="AR17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>193</v>
       </c>
       <c r="AS17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>192</v>
       </c>
       <c r="AT17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>191</v>
       </c>
       <c r="AU17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>190</v>
       </c>
       <c r="AV17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>189</v>
       </c>
       <c r="AW17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>188</v>
       </c>
       <c r="AX17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>187</v>
       </c>
       <c r="AY17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>186</v>
       </c>
       <c r="AZ17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>185</v>
       </c>
       <c r="BA17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>184</v>
       </c>
       <c r="BB17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>183</v>
       </c>
       <c r="BC17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>182</v>
       </c>
       <c r="BD17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>181</v>
       </c>
       <c r="BE17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>180</v>
       </c>
       <c r="BF17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>179</v>
       </c>
       <c r="BG17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>178</v>
       </c>
       <c r="BH17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>177</v>
       </c>
       <c r="BI17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>176</v>
       </c>
       <c r="BJ17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>175</v>
       </c>
       <c r="BK17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>174</v>
       </c>
       <c r="BL17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>173</v>
       </c>
       <c r="BM17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>172</v>
       </c>
       <c r="BN17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>171</v>
       </c>
       <c r="BO17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>170</v>
       </c>
       <c r="BP17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>169</v>
       </c>
       <c r="BQ17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>168</v>
       </c>
       <c r="BR17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>167</v>
       </c>
       <c r="BS17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>166</v>
       </c>
       <c r="BT17" s="8"/>
@@ -3367,269 +3367,269 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="4">
-        <f>D20+66</f>
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>134</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>135</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>136</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>137</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>138</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>139</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>141</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>142</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>143</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>144</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>145</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>146</v>
       </c>
       <c r="R18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>147</v>
       </c>
       <c r="S18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>148</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>149</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="V18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>151</v>
       </c>
       <c r="W18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>152</v>
       </c>
       <c r="X18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>153</v>
       </c>
       <c r="Y18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>154</v>
       </c>
       <c r="Z18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>155</v>
       </c>
       <c r="AA18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>156</v>
       </c>
       <c r="AB18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>157</v>
       </c>
       <c r="AC18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>158</v>
       </c>
       <c r="AD18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>159</v>
       </c>
       <c r="AE18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>160</v>
       </c>
       <c r="AF18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>161</v>
       </c>
       <c r="AG18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>162</v>
       </c>
       <c r="AH18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>163</v>
       </c>
       <c r="AI18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>164</v>
       </c>
       <c r="AJ18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>165</v>
       </c>
       <c r="AK18" s="8"/>
       <c r="AL18" s="8"/>
       <c r="AM18" s="4">
-        <f>AM20+66</f>
+        <f t="shared" si="4"/>
         <v>133</v>
       </c>
       <c r="AN18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>134</v>
       </c>
       <c r="AO18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>135</v>
       </c>
       <c r="AP18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>136</v>
       </c>
       <c r="AQ18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>137</v>
       </c>
       <c r="AR18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>138</v>
       </c>
       <c r="AS18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>139</v>
       </c>
       <c r="AT18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>140</v>
       </c>
       <c r="AU18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>141</v>
       </c>
       <c r="AV18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>142</v>
       </c>
       <c r="AW18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>143</v>
       </c>
       <c r="AX18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>144</v>
       </c>
       <c r="AY18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>145</v>
       </c>
       <c r="AZ18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>146</v>
       </c>
       <c r="BA18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>147</v>
       </c>
       <c r="BB18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>148</v>
       </c>
       <c r="BC18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>149</v>
       </c>
       <c r="BD18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>150</v>
       </c>
       <c r="BE18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>151</v>
       </c>
       <c r="BF18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>152</v>
       </c>
       <c r="BG18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>153</v>
       </c>
       <c r="BH18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>154</v>
       </c>
       <c r="BI18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>155</v>
       </c>
       <c r="BJ18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>156</v>
       </c>
       <c r="BK18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>157</v>
       </c>
       <c r="BL18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>158</v>
       </c>
       <c r="BM18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>159</v>
       </c>
       <c r="BN18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>160</v>
       </c>
       <c r="BO18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>161</v>
       </c>
       <c r="BP18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>162</v>
       </c>
       <c r="BQ18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>163</v>
       </c>
       <c r="BR18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>164</v>
       </c>
       <c r="BS18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>165</v>
       </c>
       <c r="BT18" s="8"/>
@@ -3639,269 +3639,269 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="4">
-        <f>D21+66</f>
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>131</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>130</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>129</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>128</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>127</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>126</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>125</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>124</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>123</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>122</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>121</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>119</v>
       </c>
       <c r="R19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>118</v>
       </c>
       <c r="S19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>117</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>116</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>115</v>
       </c>
       <c r="V19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>114</v>
       </c>
       <c r="W19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>113</v>
       </c>
       <c r="X19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>112</v>
       </c>
       <c r="Y19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>111</v>
       </c>
       <c r="Z19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
       <c r="AA19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>109</v>
       </c>
       <c r="AB19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>108</v>
       </c>
       <c r="AC19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>107</v>
       </c>
       <c r="AD19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>106</v>
       </c>
       <c r="AE19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>105</v>
       </c>
       <c r="AF19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>104</v>
       </c>
       <c r="AG19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>103</v>
       </c>
       <c r="AH19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>102</v>
       </c>
       <c r="AI19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>101</v>
       </c>
       <c r="AJ19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="AK19" s="8"/>
       <c r="AL19" s="8"/>
       <c r="AM19" s="4">
-        <f>AM21+66</f>
+        <f t="shared" si="4"/>
         <v>132</v>
       </c>
       <c r="AN19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>131</v>
       </c>
       <c r="AO19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>130</v>
       </c>
       <c r="AP19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>129</v>
       </c>
       <c r="AQ19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>128</v>
       </c>
       <c r="AR19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>127</v>
       </c>
       <c r="AS19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>126</v>
       </c>
       <c r="AT19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>125</v>
       </c>
       <c r="AU19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>124</v>
       </c>
       <c r="AV19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>123</v>
       </c>
       <c r="AW19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>122</v>
       </c>
       <c r="AX19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>121</v>
       </c>
       <c r="AY19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
       <c r="AZ19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>119</v>
       </c>
       <c r="BA19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>118</v>
       </c>
       <c r="BB19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>117</v>
       </c>
       <c r="BC19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>116</v>
       </c>
       <c r="BD19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>115</v>
       </c>
       <c r="BE19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>114</v>
       </c>
       <c r="BF19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>113</v>
       </c>
       <c r="BG19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>112</v>
       </c>
       <c r="BH19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>111</v>
       </c>
       <c r="BI19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="BJ19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>109</v>
       </c>
       <c r="BK19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>108</v>
       </c>
       <c r="BL19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>107</v>
       </c>
       <c r="BM19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>106</v>
       </c>
       <c r="BN19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>105</v>
       </c>
       <c r="BO19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>104</v>
       </c>
       <c r="BP19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>103</v>
       </c>
       <c r="BQ19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>102</v>
       </c>
       <c r="BR19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>101</v>
       </c>
       <c r="BS19" s="4">
-        <f t="shared" ref="AN19:BS20" si="10">BS21+66</f>
+        <f t="shared" ref="AN19:BS20" si="12">BS21+66</f>
         <v>100</v>
       </c>
       <c r="BT19" s="8"/>
@@ -3911,269 +3911,269 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="4">
-        <f>D22+66</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>71</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>73</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>74</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>76</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>79</v>
       </c>
       <c r="Q20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="R20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="S20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>82</v>
       </c>
       <c r="T20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>83</v>
       </c>
       <c r="U20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="V20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
       <c r="W20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>86</v>
       </c>
       <c r="X20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>87</v>
       </c>
       <c r="Y20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>88</v>
       </c>
       <c r="Z20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
       <c r="AA20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="AB20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="AC20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>92</v>
       </c>
       <c r="AD20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="AE20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>94</v>
       </c>
       <c r="AF20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>95</v>
       </c>
       <c r="AG20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="AH20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
       <c r="AI20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>98</v>
       </c>
       <c r="AJ20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>99</v>
       </c>
       <c r="AK20" s="8"/>
       <c r="AL20" s="8"/>
       <c r="AM20" s="4">
-        <f>AM22+66</f>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="AN20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>68</v>
       </c>
       <c r="AO20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>69</v>
       </c>
       <c r="AP20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="AQ20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>71</v>
       </c>
       <c r="AR20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>72</v>
       </c>
       <c r="AS20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>73</v>
       </c>
       <c r="AT20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>74</v>
       </c>
       <c r="AU20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>75</v>
       </c>
       <c r="AV20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>76</v>
       </c>
       <c r="AW20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>77</v>
       </c>
       <c r="AX20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>78</v>
       </c>
       <c r="AY20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>79</v>
       </c>
       <c r="AZ20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="BA20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>81</v>
       </c>
       <c r="BB20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>82</v>
       </c>
       <c r="BC20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>83</v>
       </c>
       <c r="BD20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>84</v>
       </c>
       <c r="BE20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>85</v>
       </c>
       <c r="BF20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>86</v>
       </c>
       <c r="BG20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>87</v>
       </c>
       <c r="BH20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>88</v>
       </c>
       <c r="BI20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>89</v>
       </c>
       <c r="BJ20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>90</v>
       </c>
       <c r="BK20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>91</v>
       </c>
       <c r="BL20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>92</v>
       </c>
       <c r="BM20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>93</v>
       </c>
       <c r="BN20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>94</v>
       </c>
       <c r="BO20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>95</v>
       </c>
       <c r="BP20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="BQ20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>97</v>
       </c>
       <c r="BR20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>98</v>
       </c>
       <c r="BS20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>99</v>
       </c>
       <c r="BT20" s="8"/>
@@ -4830,27 +4830,27 @@
     </row>
     <row r="62" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C62" s="4">
-        <f>C64+66</f>
+        <f t="shared" ref="C62:H63" si="13">C64+66</f>
         <v>430</v>
       </c>
       <c r="D62" s="4">
-        <f>D64+66</f>
+        <f t="shared" si="13"/>
         <v>298</v>
       </c>
       <c r="E62" s="4">
-        <f>E64+66</f>
+        <f t="shared" si="13"/>
         <v>434</v>
       </c>
       <c r="F62" s="4">
-        <f>F64+66</f>
+        <f t="shared" si="13"/>
         <v>433</v>
       </c>
       <c r="G62" s="4">
-        <f>G64+66</f>
+        <f t="shared" si="13"/>
         <v>432</v>
       </c>
       <c r="H62" s="4">
-        <f>H64+66</f>
+        <f t="shared" si="13"/>
         <v>431</v>
       </c>
       <c r="I62" s="4">
@@ -4876,27 +4876,27 @@
     </row>
     <row r="63" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C63" s="4">
-        <f>C65+66</f>
+        <f t="shared" si="13"/>
         <v>429</v>
       </c>
       <c r="D63" s="4">
-        <f>D65+66</f>
+        <f t="shared" si="13"/>
         <v>297</v>
       </c>
       <c r="E63" s="4">
-        <f>E65+66</f>
+        <f t="shared" si="13"/>
         <v>425</v>
       </c>
       <c r="F63" s="4">
-        <f>F65+66</f>
+        <f t="shared" si="13"/>
         <v>426</v>
       </c>
       <c r="G63" s="4">
-        <f>G65+66</f>
+        <f t="shared" si="13"/>
         <v>427</v>
       </c>
       <c r="H63" s="4">
-        <f>H65+66</f>
+        <f t="shared" si="13"/>
         <v>428</v>
       </c>
       <c r="I63" s="4">
@@ -4945,19 +4945,19 @@
         <v>232</v>
       </c>
       <c r="E64" s="4">
-        <f>Z64+66</f>
+        <f t="shared" ref="E64:H65" si="14">Z64+66</f>
         <v>368</v>
       </c>
       <c r="F64" s="4">
-        <f>AA64+66</f>
+        <f t="shared" si="14"/>
         <v>367</v>
       </c>
       <c r="G64" s="4">
-        <f>AB64+66</f>
+        <f t="shared" si="14"/>
         <v>366</v>
       </c>
       <c r="H64" s="4">
-        <f>AC64+66</f>
+        <f t="shared" si="14"/>
         <v>365</v>
       </c>
       <c r="I64" s="4">
@@ -4988,23 +4988,23 @@
         <v>34</v>
       </c>
       <c r="Q64" s="4">
-        <f>L64+66</f>
+        <f t="shared" ref="Q64:U65" si="15">L64+66</f>
         <v>104</v>
       </c>
       <c r="R64" s="4">
-        <f>M64+66</f>
+        <f t="shared" si="15"/>
         <v>103</v>
       </c>
       <c r="S64" s="4">
-        <f>N64+66</f>
+        <f t="shared" si="15"/>
         <v>102</v>
       </c>
       <c r="T64" s="4">
-        <f>O64+66</f>
+        <f t="shared" si="15"/>
         <v>101</v>
       </c>
       <c r="U64" s="4">
-        <f>P64+66</f>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="V64" s="4">
@@ -5012,31 +5012,31 @@
         <v>236</v>
       </c>
       <c r="W64" s="4">
-        <f>Z66+66</f>
+        <f t="shared" ref="W64:Y65" si="16">Z66+66</f>
         <v>235</v>
       </c>
       <c r="X64" s="4">
-        <f>AA66+66</f>
+        <f t="shared" si="16"/>
         <v>234</v>
       </c>
       <c r="Y64" s="4">
-        <f>AB66+66</f>
+        <f t="shared" si="16"/>
         <v>233</v>
       </c>
       <c r="Z64" s="4">
-        <f>V64+66</f>
+        <f t="shared" ref="Z64:AC65" si="17">V64+66</f>
         <v>302</v>
       </c>
       <c r="AA64" s="4">
-        <f>W64+66</f>
+        <f t="shared" si="17"/>
         <v>301</v>
       </c>
       <c r="AB64" s="4">
-        <f>X64+66</f>
+        <f t="shared" si="17"/>
         <v>300</v>
       </c>
       <c r="AC64" s="4">
-        <f>Y64+66</f>
+        <f t="shared" si="17"/>
         <v>299</v>
       </c>
     </row>
@@ -5050,19 +5050,19 @@
         <v>231</v>
       </c>
       <c r="E65" s="4">
-        <f>Z65+66</f>
+        <f t="shared" si="14"/>
         <v>359</v>
       </c>
       <c r="F65" s="4">
-        <f>AA65+66</f>
+        <f t="shared" si="14"/>
         <v>360</v>
       </c>
       <c r="G65" s="4">
-        <f>AB65+66</f>
+        <f t="shared" si="14"/>
         <v>361</v>
       </c>
       <c r="H65" s="4">
-        <f>AC65+66</f>
+        <f t="shared" si="14"/>
         <v>362</v>
       </c>
       <c r="I65" s="4">
@@ -5092,23 +5092,23 @@
         <v>33</v>
       </c>
       <c r="Q65" s="4">
-        <f>L65+66</f>
+        <f t="shared" si="15"/>
         <v>95</v>
       </c>
       <c r="R65" s="4">
-        <f>M65+66</f>
+        <f t="shared" si="15"/>
         <v>96</v>
       </c>
       <c r="S65" s="4">
-        <f>N65+66</f>
+        <f t="shared" si="15"/>
         <v>97</v>
       </c>
       <c r="T65" s="4">
-        <f>O65+66</f>
+        <f t="shared" si="15"/>
         <v>98</v>
       </c>
       <c r="U65" s="4">
-        <f>P65+66</f>
+        <f t="shared" si="15"/>
         <v>99</v>
       </c>
       <c r="V65" s="4">
@@ -5116,38 +5116,38 @@
         <v>227</v>
       </c>
       <c r="W65" s="4">
-        <f>Z67+66</f>
+        <f t="shared" si="16"/>
         <v>228</v>
       </c>
       <c r="X65" s="4">
-        <f>AA67+66</f>
+        <f t="shared" si="16"/>
         <v>229</v>
       </c>
       <c r="Y65" s="4">
-        <f>AB67+66</f>
+        <f t="shared" si="16"/>
         <v>230</v>
       </c>
       <c r="Z65" s="4">
-        <f>V65+66</f>
+        <f t="shared" si="17"/>
         <v>293</v>
       </c>
       <c r="AA65" s="4">
-        <f>W65+66</f>
+        <f t="shared" si="17"/>
         <v>294</v>
       </c>
       <c r="AB65" s="4">
-        <f>X65+66</f>
+        <f t="shared" si="17"/>
         <v>295</v>
       </c>
       <c r="AC65" s="4">
-        <f>Y65+66</f>
+        <f t="shared" si="17"/>
         <v>296</v>
       </c>
     </row>
     <row r="66" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="C66" s="4">
-        <f>C68+66</f>
+        <f t="shared" ref="C66:C77" si="18">C68+66</f>
         <v>435</v>
       </c>
       <c r="D66" s="4">
@@ -5179,79 +5179,79 @@
         <v>159</v>
       </c>
       <c r="K66" s="4">
-        <f t="shared" ref="K66:AJ66" si="11">K68+66</f>
+        <f t="shared" ref="K66:Y66" si="19">K68+66</f>
         <v>455</v>
       </c>
       <c r="L66" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>454</v>
       </c>
       <c r="M66" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>453</v>
       </c>
       <c r="N66" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>452</v>
       </c>
       <c r="O66" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>451</v>
       </c>
       <c r="P66" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>450</v>
       </c>
       <c r="Q66" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>449</v>
       </c>
       <c r="R66" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>448</v>
       </c>
       <c r="S66" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>447</v>
       </c>
       <c r="T66" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>446</v>
       </c>
       <c r="U66" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>445</v>
       </c>
       <c r="V66" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>444</v>
       </c>
       <c r="W66" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>443</v>
       </c>
       <c r="X66" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>442</v>
       </c>
       <c r="Y66" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>441</v>
       </c>
       <c r="Z66" s="4">
-        <f>R64+66</f>
+        <f t="shared" ref="Z66:AC67" si="20">R64+66</f>
         <v>169</v>
       </c>
       <c r="AA66" s="4">
-        <f>S64+66</f>
+        <f t="shared" si="20"/>
         <v>168</v>
       </c>
       <c r="AB66" s="4">
-        <f>T64+66</f>
+        <f t="shared" si="20"/>
         <v>167</v>
       </c>
       <c r="AC66" s="4">
-        <f>U64+66</f>
+        <f t="shared" si="20"/>
         <v>166</v>
       </c>
       <c r="AK66" s="8"/>
@@ -5259,111 +5259,111 @@
     <row r="67" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="C67" s="4">
-        <f>C69+66</f>
+        <f t="shared" si="18"/>
         <v>424</v>
       </c>
       <c r="D67" s="4">
-        <f>D69+66</f>
+        <f t="shared" ref="D67:D77" si="21">D69+66</f>
         <v>397</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" ref="E67:AJ67" si="12">E69+66</f>
+        <f t="shared" ref="E67:Y67" si="22">E69+66</f>
         <v>398</v>
       </c>
       <c r="F67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>399</v>
       </c>
       <c r="G67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>401</v>
       </c>
       <c r="I67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>402</v>
       </c>
       <c r="J67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>403</v>
       </c>
       <c r="K67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>404</v>
       </c>
       <c r="L67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>405</v>
       </c>
       <c r="M67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>406</v>
       </c>
       <c r="N67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>407</v>
       </c>
       <c r="O67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>408</v>
       </c>
       <c r="P67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>409</v>
       </c>
       <c r="Q67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>410</v>
       </c>
       <c r="R67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>411</v>
       </c>
       <c r="S67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>412</v>
       </c>
       <c r="T67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>413</v>
       </c>
       <c r="U67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>414</v>
       </c>
       <c r="V67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>415</v>
       </c>
       <c r="W67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>416</v>
       </c>
       <c r="X67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>417</v>
       </c>
       <c r="Y67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>418</v>
       </c>
       <c r="Z67" s="4">
-        <f>R65+66</f>
+        <f t="shared" si="20"/>
         <v>162</v>
       </c>
       <c r="AA67" s="4">
-        <f>S65+66</f>
+        <f t="shared" si="20"/>
         <v>163</v>
       </c>
       <c r="AB67" s="4">
-        <f>T65+66</f>
+        <f t="shared" si="20"/>
         <v>164</v>
       </c>
       <c r="AC67" s="4">
-        <f>U65+66</f>
+        <f t="shared" si="20"/>
         <v>165</v>
       </c>
       <c r="AK67" s="8"/>
@@ -5371,95 +5371,95 @@
     <row r="68" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
       <c r="C68" s="4">
-        <f>C70+66</f>
+        <f t="shared" si="18"/>
         <v>369</v>
       </c>
       <c r="D68" s="4">
-        <f>D70+66</f>
+        <f t="shared" si="21"/>
         <v>396</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" ref="E68:AJ68" si="13">E70+66</f>
+        <f t="shared" ref="E68:Y68" si="23">E70+66</f>
         <v>395</v>
       </c>
       <c r="F68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>394</v>
       </c>
       <c r="G68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>393</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>392</v>
       </c>
       <c r="I68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>391</v>
       </c>
       <c r="J68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>390</v>
       </c>
       <c r="K68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>389</v>
       </c>
       <c r="L68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>388</v>
       </c>
       <c r="M68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>387</v>
       </c>
       <c r="N68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>386</v>
       </c>
       <c r="O68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>385</v>
       </c>
       <c r="P68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>384</v>
       </c>
       <c r="Q68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>383</v>
       </c>
       <c r="R68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>382</v>
       </c>
       <c r="S68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>381</v>
       </c>
       <c r="T68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>380</v>
       </c>
       <c r="U68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>379</v>
       </c>
       <c r="V68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>378</v>
       </c>
       <c r="W68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>377</v>
       </c>
       <c r="X68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>376</v>
       </c>
       <c r="Y68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>375</v>
       </c>
       <c r="Z68" s="4">
@@ -5483,95 +5483,95 @@
     <row r="69" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="C69" s="4">
-        <f>C71+66</f>
+        <f t="shared" si="18"/>
         <v>358</v>
       </c>
       <c r="D69" s="4">
-        <f>D71+66</f>
+        <f t="shared" si="21"/>
         <v>331</v>
       </c>
       <c r="E69" s="4">
-        <f t="shared" ref="E69:AJ76" si="14">E71+66</f>
+        <f t="shared" ref="E69:AC76" si="24">E71+66</f>
         <v>332</v>
       </c>
       <c r="F69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>333</v>
       </c>
       <c r="G69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>334</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>335</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>336</v>
       </c>
       <c r="J69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>337</v>
       </c>
       <c r="K69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>338</v>
       </c>
       <c r="L69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>339</v>
       </c>
       <c r="M69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>340</v>
       </c>
       <c r="N69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>341</v>
       </c>
       <c r="O69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>342</v>
       </c>
       <c r="P69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>343</v>
       </c>
       <c r="Q69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>344</v>
       </c>
       <c r="R69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>345</v>
       </c>
       <c r="S69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>346</v>
       </c>
       <c r="T69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>347</v>
       </c>
       <c r="U69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>348</v>
       </c>
       <c r="V69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>349</v>
       </c>
       <c r="W69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>350</v>
       </c>
       <c r="X69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>351</v>
       </c>
       <c r="Y69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>352</v>
       </c>
       <c r="Z69" s="4">
@@ -5583,111 +5583,111 @@
     <row r="70" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="C70" s="4">
-        <f>C72+66</f>
+        <f t="shared" si="18"/>
         <v>303</v>
       </c>
       <c r="D70" s="4">
-        <f>D72+66</f>
+        <f t="shared" si="21"/>
         <v>330</v>
       </c>
       <c r="E70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>329</v>
       </c>
       <c r="F70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>328</v>
       </c>
       <c r="G70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>327</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>326</v>
       </c>
       <c r="I70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>325</v>
       </c>
       <c r="J70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>324</v>
       </c>
       <c r="K70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>323</v>
       </c>
       <c r="L70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>322</v>
       </c>
       <c r="M70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>321</v>
       </c>
       <c r="N70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>320</v>
       </c>
       <c r="O70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>319</v>
       </c>
       <c r="P70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>318</v>
       </c>
       <c r="Q70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>317</v>
       </c>
       <c r="R70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>316</v>
       </c>
       <c r="S70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>315</v>
       </c>
       <c r="T70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>314</v>
       </c>
       <c r="U70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>313</v>
       </c>
       <c r="V70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>312</v>
       </c>
       <c r="W70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>311</v>
       </c>
       <c r="X70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>310</v>
       </c>
       <c r="Y70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>309</v>
       </c>
       <c r="Z70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>308</v>
       </c>
       <c r="AA70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>307</v>
       </c>
       <c r="AB70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>306</v>
       </c>
       <c r="AC70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>305</v>
       </c>
       <c r="AK70" s="8"/>
@@ -5695,111 +5695,111 @@
     <row r="71" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B71" s="8"/>
       <c r="C71" s="4">
-        <f>C73+66</f>
+        <f t="shared" si="18"/>
         <v>292</v>
       </c>
       <c r="D71" s="4">
-        <f>D73+66</f>
+        <f t="shared" si="21"/>
         <v>265</v>
       </c>
       <c r="E71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>266</v>
       </c>
       <c r="F71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>267</v>
       </c>
       <c r="G71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>268</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>269</v>
       </c>
       <c r="I71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>270</v>
       </c>
       <c r="J71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>271</v>
       </c>
       <c r="K71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>272</v>
       </c>
       <c r="L71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>273</v>
       </c>
       <c r="M71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>274</v>
       </c>
       <c r="N71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>275</v>
       </c>
       <c r="O71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>276</v>
       </c>
       <c r="P71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>277</v>
       </c>
       <c r="Q71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>278</v>
       </c>
       <c r="R71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>279</v>
       </c>
       <c r="S71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>280</v>
       </c>
       <c r="T71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>281</v>
       </c>
       <c r="U71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>282</v>
       </c>
       <c r="V71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>283</v>
       </c>
       <c r="W71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>284</v>
       </c>
       <c r="X71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>285</v>
       </c>
       <c r="Y71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>286</v>
       </c>
       <c r="Z71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>287</v>
       </c>
       <c r="AA71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>288</v>
       </c>
       <c r="AB71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>289</v>
       </c>
       <c r="AC71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>290</v>
       </c>
       <c r="AK71" s="8"/>
@@ -5807,111 +5807,111 @@
     <row r="72" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
       <c r="C72" s="4">
-        <f>C74+66</f>
+        <f t="shared" si="18"/>
         <v>237</v>
       </c>
       <c r="D72" s="4">
-        <f>D74+66</f>
+        <f t="shared" si="21"/>
         <v>264</v>
       </c>
       <c r="E72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>263</v>
       </c>
       <c r="F72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>262</v>
       </c>
       <c r="G72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>261</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>260</v>
       </c>
       <c r="I72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>259</v>
       </c>
       <c r="J72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>258</v>
       </c>
       <c r="K72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>257</v>
       </c>
       <c r="L72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>256</v>
       </c>
       <c r="M72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>255</v>
       </c>
       <c r="N72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>254</v>
       </c>
       <c r="O72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>253</v>
       </c>
       <c r="P72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>252</v>
       </c>
       <c r="Q72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>251</v>
       </c>
       <c r="R72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>250</v>
       </c>
       <c r="S72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>249</v>
       </c>
       <c r="T72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>248</v>
       </c>
       <c r="U72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>247</v>
       </c>
       <c r="V72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>246</v>
       </c>
       <c r="W72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>245</v>
       </c>
       <c r="X72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>244</v>
       </c>
       <c r="Y72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>243</v>
       </c>
       <c r="Z72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>242</v>
       </c>
       <c r="AA72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>241</v>
       </c>
       <c r="AB72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>240</v>
       </c>
       <c r="AC72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>239</v>
       </c>
       <c r="AK72" s="8"/>
@@ -5919,111 +5919,111 @@
     <row r="73" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="C73" s="4">
-        <f>C75+66</f>
+        <f t="shared" si="18"/>
         <v>226</v>
       </c>
       <c r="D73" s="4">
-        <f>D75+66</f>
+        <f t="shared" si="21"/>
         <v>199</v>
       </c>
       <c r="E73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>200</v>
       </c>
       <c r="F73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>201</v>
       </c>
       <c r="G73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>202</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>203</v>
       </c>
       <c r="I73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>204</v>
       </c>
       <c r="J73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>205</v>
       </c>
       <c r="K73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>206</v>
       </c>
       <c r="L73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>207</v>
       </c>
       <c r="M73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>208</v>
       </c>
       <c r="N73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>209</v>
       </c>
       <c r="O73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>210</v>
       </c>
       <c r="P73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>211</v>
       </c>
       <c r="Q73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>212</v>
       </c>
       <c r="R73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>213</v>
       </c>
       <c r="S73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>214</v>
       </c>
       <c r="T73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>215</v>
       </c>
       <c r="U73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>216</v>
       </c>
       <c r="V73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>217</v>
       </c>
       <c r="W73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>218</v>
       </c>
       <c r="X73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>219</v>
       </c>
       <c r="Y73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>220</v>
       </c>
       <c r="Z73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>221</v>
       </c>
       <c r="AA73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>222</v>
       </c>
       <c r="AB73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>223</v>
       </c>
       <c r="AC73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>224</v>
       </c>
       <c r="AK73" s="8"/>
@@ -6031,111 +6031,111 @@
     <row r="74" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="C74" s="4">
-        <f>C76+66</f>
+        <f t="shared" si="18"/>
         <v>171</v>
       </c>
       <c r="D74" s="4">
-        <f>D76+66</f>
+        <f t="shared" si="21"/>
         <v>198</v>
       </c>
       <c r="E74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>197</v>
       </c>
       <c r="F74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>196</v>
       </c>
       <c r="G74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>195</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>194</v>
       </c>
       <c r="I74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>193</v>
       </c>
       <c r="J74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>192</v>
       </c>
       <c r="K74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>191</v>
       </c>
       <c r="L74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>190</v>
       </c>
       <c r="M74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>189</v>
       </c>
       <c r="N74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>188</v>
       </c>
       <c r="O74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>187</v>
       </c>
       <c r="P74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>186</v>
       </c>
       <c r="Q74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>185</v>
       </c>
       <c r="R74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>184</v>
       </c>
       <c r="S74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>183</v>
       </c>
       <c r="T74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>182</v>
       </c>
       <c r="U74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>181</v>
       </c>
       <c r="V74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>180</v>
       </c>
       <c r="W74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>179</v>
       </c>
       <c r="X74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>178</v>
       </c>
       <c r="Y74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>177</v>
       </c>
       <c r="Z74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>176</v>
       </c>
       <c r="AA74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>175</v>
       </c>
       <c r="AB74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>174</v>
       </c>
       <c r="AC74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>173</v>
       </c>
       <c r="AK74" s="8"/>
@@ -6143,111 +6143,111 @@
     <row r="75" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="C75" s="4">
-        <f>C77+66</f>
+        <f t="shared" si="18"/>
         <v>160</v>
       </c>
       <c r="D75" s="4">
-        <f>D77+66</f>
+        <f t="shared" si="21"/>
         <v>133</v>
       </c>
       <c r="E75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>134</v>
       </c>
       <c r="F75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>135</v>
       </c>
       <c r="G75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>136</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>137</v>
       </c>
       <c r="I75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>138</v>
       </c>
       <c r="J75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>139</v>
       </c>
       <c r="K75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>140</v>
       </c>
       <c r="L75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>141</v>
       </c>
       <c r="M75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>142</v>
       </c>
       <c r="N75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>143</v>
       </c>
       <c r="O75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>144</v>
       </c>
       <c r="P75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>145</v>
       </c>
       <c r="Q75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>146</v>
       </c>
       <c r="R75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>147</v>
       </c>
       <c r="S75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>148</v>
       </c>
       <c r="T75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>149</v>
       </c>
       <c r="U75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>150</v>
       </c>
       <c r="V75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>151</v>
       </c>
       <c r="W75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="X75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>153</v>
       </c>
       <c r="Y75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>154</v>
       </c>
       <c r="Z75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>155</v>
       </c>
       <c r="AA75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>156</v>
       </c>
       <c r="AB75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>157</v>
       </c>
       <c r="AC75" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>158</v>
       </c>
       <c r="AK75" s="8"/>
@@ -6255,111 +6255,111 @@
     <row r="76" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="C76" s="4">
-        <f>C78+66</f>
+        <f t="shared" si="18"/>
         <v>105</v>
       </c>
       <c r="D76" s="4">
-        <f>D78+66</f>
+        <f t="shared" si="21"/>
         <v>132</v>
       </c>
       <c r="E76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>131</v>
       </c>
       <c r="F76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>130</v>
       </c>
       <c r="G76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>129</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>128</v>
       </c>
       <c r="I76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>127</v>
       </c>
       <c r="J76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>126</v>
       </c>
       <c r="K76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>125</v>
       </c>
       <c r="L76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>124</v>
       </c>
       <c r="M76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>123</v>
       </c>
       <c r="N76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>122</v>
       </c>
       <c r="O76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>121</v>
       </c>
       <c r="P76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>120</v>
       </c>
       <c r="Q76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>119</v>
       </c>
       <c r="R76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>118</v>
       </c>
       <c r="S76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>117</v>
       </c>
       <c r="T76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>116</v>
       </c>
       <c r="U76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>115</v>
       </c>
       <c r="V76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>114</v>
       </c>
       <c r="W76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>113</v>
       </c>
       <c r="X76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>112</v>
       </c>
       <c r="Y76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>111</v>
       </c>
       <c r="Z76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>110</v>
       </c>
       <c r="AA76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>109</v>
       </c>
       <c r="AB76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>108</v>
       </c>
       <c r="AC76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>107</v>
       </c>
       <c r="AK76" s="8"/>
@@ -6367,111 +6367,111 @@
     <row r="77" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="C77" s="4">
-        <f>C79+66</f>
+        <f t="shared" si="18"/>
         <v>94</v>
       </c>
       <c r="D77" s="4">
-        <f>D79+66</f>
+        <f t="shared" si="21"/>
         <v>67</v>
       </c>
       <c r="E77" s="4">
-        <f t="shared" ref="E76:AK77" si="15">E79+66</f>
+        <f t="shared" ref="E77:AC77" si="25">E79+66</f>
         <v>68</v>
       </c>
       <c r="F77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>69</v>
       </c>
       <c r="G77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>70</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>71</v>
       </c>
       <c r="I77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>72</v>
       </c>
       <c r="J77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>73</v>
       </c>
       <c r="K77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>74</v>
       </c>
       <c r="L77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>75</v>
       </c>
       <c r="M77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>76</v>
       </c>
       <c r="N77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>77</v>
       </c>
       <c r="O77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>78</v>
       </c>
       <c r="P77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>79</v>
       </c>
       <c r="Q77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>80</v>
       </c>
       <c r="R77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>81</v>
       </c>
       <c r="S77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>82</v>
       </c>
       <c r="T77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>83</v>
       </c>
       <c r="U77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>84</v>
       </c>
       <c r="V77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>85</v>
       </c>
       <c r="W77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>86</v>
       </c>
       <c r="X77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>87</v>
       </c>
       <c r="Y77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>88</v>
       </c>
       <c r="Z77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>89</v>
       </c>
       <c r="AA77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>90</v>
       </c>
       <c r="AB77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>91</v>
       </c>
       <c r="AC77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>92</v>
       </c>
       <c r="AK77" s="8"/>
@@ -16552,19 +16552,19 @@
     <row r="8" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="4">
-        <f>C10+4</f>
+        <f t="shared" ref="C8:C19" si="0">C10+4</f>
         <v>28</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" ref="D8:F8" si="0">D10+4</f>
+        <f t="shared" ref="D8:F8" si="1">D10+4</f>
         <v>28</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="G8" s="8"/>
@@ -16578,107 +16578,107 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="4">
-        <f t="shared" ref="Q8:AP8" si="1">Q10+66</f>
+        <f t="shared" ref="Q8:AP8" si="2">Q10+66</f>
         <v>455</v>
       </c>
       <c r="R8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>454</v>
       </c>
       <c r="S8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>453</v>
       </c>
       <c r="T8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>452</v>
       </c>
       <c r="U8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>451</v>
       </c>
       <c r="V8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>450</v>
       </c>
       <c r="W8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>449</v>
       </c>
       <c r="X8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>448</v>
       </c>
       <c r="Y8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>447</v>
       </c>
       <c r="Z8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>446</v>
       </c>
       <c r="AA8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>445</v>
       </c>
       <c r="AB8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>444</v>
       </c>
       <c r="AC8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>443</v>
       </c>
       <c r="AD8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>442</v>
       </c>
       <c r="AE8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>441</v>
       </c>
       <c r="AF8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>440</v>
       </c>
       <c r="AG8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>439</v>
       </c>
       <c r="AH8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>438</v>
       </c>
       <c r="AI8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>437</v>
       </c>
       <c r="AJ8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>436</v>
       </c>
       <c r="AK8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>435</v>
       </c>
       <c r="AL8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>434</v>
       </c>
       <c r="AM8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>433</v>
       </c>
       <c r="AN8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>432</v>
       </c>
       <c r="AO8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>431</v>
       </c>
       <c r="AP8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>430</v>
       </c>
       <c r="AQ8" s="8"/>
@@ -16691,107 +16691,107 @@
       <c r="AX8" s="8"/>
       <c r="AY8" s="8"/>
       <c r="AZ8" s="4">
-        <f t="shared" ref="AZ8:BY8" si="2">AZ10+66</f>
+        <f t="shared" ref="AZ8:BY8" si="3">AZ10+66</f>
         <v>455</v>
       </c>
       <c r="BA8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>454</v>
       </c>
       <c r="BB8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>453</v>
       </c>
       <c r="BC8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>452</v>
       </c>
       <c r="BD8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>451</v>
       </c>
       <c r="BE8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
       <c r="BF8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>449</v>
       </c>
       <c r="BG8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>448</v>
       </c>
       <c r="BH8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>447</v>
       </c>
       <c r="BI8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>446</v>
       </c>
       <c r="BJ8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>445</v>
       </c>
       <c r="BK8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>444</v>
       </c>
       <c r="BL8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>443</v>
       </c>
       <c r="BM8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>442</v>
       </c>
       <c r="BN8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>441</v>
       </c>
       <c r="BO8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>440</v>
       </c>
       <c r="BP8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>439</v>
       </c>
       <c r="BQ8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>438</v>
       </c>
       <c r="BR8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>437</v>
       </c>
       <c r="BS8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>436</v>
       </c>
       <c r="BT8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>435</v>
       </c>
       <c r="BU8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>434</v>
       </c>
       <c r="BV8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>433</v>
       </c>
       <c r="BW8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>432</v>
       </c>
       <c r="BX8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>431</v>
       </c>
       <c r="BY8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>430</v>
       </c>
       <c r="BZ8" s="8"/>
@@ -16800,288 +16800,288 @@
     <row r="9" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="4">
-        <f>C11+4</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" ref="D9:F9" si="3">D11+4</f>
+        <f t="shared" ref="D9:F9" si="4">D11+4</f>
         <v>25</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="4">
-        <f>J11+66</f>
+        <f t="shared" ref="J9:J19" si="5">J11+66</f>
         <v>397</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" ref="K9:AP16" si="4">K11+66</f>
+        <f t="shared" ref="K9:AP16" si="6">K11+66</f>
         <v>398</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>399</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>401</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>402</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>403</v>
       </c>
       <c r="Q9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>404</v>
       </c>
       <c r="R9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>405</v>
       </c>
       <c r="S9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>406</v>
       </c>
       <c r="T9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>407</v>
       </c>
       <c r="U9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>408</v>
       </c>
       <c r="V9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>409</v>
       </c>
       <c r="W9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
       <c r="X9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>411</v>
       </c>
       <c r="Y9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>412</v>
       </c>
       <c r="Z9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>413</v>
       </c>
       <c r="AA9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>414</v>
       </c>
       <c r="AB9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>415</v>
       </c>
       <c r="AC9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>416</v>
       </c>
       <c r="AD9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>417</v>
       </c>
       <c r="AE9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>418</v>
       </c>
       <c r="AF9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>419</v>
       </c>
       <c r="AG9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
       <c r="AH9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>421</v>
       </c>
       <c r="AI9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>422</v>
       </c>
       <c r="AJ9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>423</v>
       </c>
       <c r="AK9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>424</v>
       </c>
       <c r="AL9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>425</v>
       </c>
       <c r="AM9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>426</v>
       </c>
       <c r="AN9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>427</v>
       </c>
       <c r="AO9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>428</v>
       </c>
       <c r="AP9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>429</v>
       </c>
       <c r="AQ9" s="8"/>
       <c r="AR9" s="8"/>
       <c r="AS9" s="4">
-        <f>AS11+66</f>
+        <f t="shared" ref="AS9:AS19" si="7">AS11+66</f>
         <v>397</v>
       </c>
       <c r="AT9" s="4">
-        <f t="shared" ref="AT9:BY16" si="5">AT11+66</f>
+        <f t="shared" ref="AT9:BY16" si="8">AT11+66</f>
         <v>398</v>
       </c>
       <c r="AU9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>399</v>
       </c>
       <c r="AV9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>400</v>
       </c>
       <c r="AW9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>401</v>
       </c>
       <c r="AX9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>402</v>
       </c>
       <c r="AY9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>403</v>
       </c>
       <c r="AZ9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>404</v>
       </c>
       <c r="BA9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>405</v>
       </c>
       <c r="BB9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>406</v>
       </c>
       <c r="BC9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>407</v>
       </c>
       <c r="BD9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>408</v>
       </c>
       <c r="BE9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>409</v>
       </c>
       <c r="BF9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>410</v>
       </c>
       <c r="BG9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>411</v>
       </c>
       <c r="BH9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>412</v>
       </c>
       <c r="BI9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>413</v>
       </c>
       <c r="BJ9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>414</v>
       </c>
       <c r="BK9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>415</v>
       </c>
       <c r="BL9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>416</v>
       </c>
       <c r="BM9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>417</v>
       </c>
       <c r="BN9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>418</v>
       </c>
       <c r="BO9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>419</v>
       </c>
       <c r="BP9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>420</v>
       </c>
       <c r="BQ9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>421</v>
       </c>
       <c r="BR9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>422</v>
       </c>
       <c r="BS9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>423</v>
       </c>
       <c r="BT9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>424</v>
       </c>
       <c r="BU9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>425</v>
       </c>
       <c r="BV9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>426</v>
       </c>
       <c r="BW9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>427</v>
       </c>
       <c r="BX9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>428</v>
       </c>
       <c r="BY9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>429</v>
       </c>
       <c r="BZ9" s="8"/>
@@ -17090,288 +17090,288 @@
     <row r="10" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="4">
-        <f>C12+4</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" ref="D10:F10" si="6">D12+4</f>
+        <f t="shared" ref="D10:F10" si="9">D12+4</f>
         <v>24</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="4">
-        <f>J12+66</f>
+        <f t="shared" si="5"/>
         <v>396</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>395</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>394</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>393</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>392</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>391</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
       <c r="Q10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>389</v>
       </c>
       <c r="R10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>388</v>
       </c>
       <c r="S10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>387</v>
       </c>
       <c r="T10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>386</v>
       </c>
       <c r="U10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>385</v>
       </c>
       <c r="V10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>384</v>
       </c>
       <c r="W10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>383</v>
       </c>
       <c r="X10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>382</v>
       </c>
       <c r="Y10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>381</v>
       </c>
       <c r="Z10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>380</v>
       </c>
       <c r="AA10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>379</v>
       </c>
       <c r="AB10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>378</v>
       </c>
       <c r="AC10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>377</v>
       </c>
       <c r="AD10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>376</v>
       </c>
       <c r="AE10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>375</v>
       </c>
       <c r="AF10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>374</v>
       </c>
       <c r="AG10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>373</v>
       </c>
       <c r="AH10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>372</v>
       </c>
       <c r="AI10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>371</v>
       </c>
       <c r="AJ10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>370</v>
       </c>
       <c r="AK10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>369</v>
       </c>
       <c r="AL10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>368</v>
       </c>
       <c r="AM10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>367</v>
       </c>
       <c r="AN10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>366</v>
       </c>
       <c r="AO10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>365</v>
       </c>
       <c r="AP10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>364</v>
       </c>
       <c r="AQ10" s="8"/>
       <c r="AR10" s="8"/>
       <c r="AS10" s="4">
-        <f>AS12+66</f>
+        <f t="shared" si="7"/>
         <v>396</v>
       </c>
       <c r="AT10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>395</v>
       </c>
       <c r="AU10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>394</v>
       </c>
       <c r="AV10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>393</v>
       </c>
       <c r="AW10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>392</v>
       </c>
       <c r="AX10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>391</v>
       </c>
       <c r="AY10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>390</v>
       </c>
       <c r="AZ10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>389</v>
       </c>
       <c r="BA10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>388</v>
       </c>
       <c r="BB10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>387</v>
       </c>
       <c r="BC10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>386</v>
       </c>
       <c r="BD10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>385</v>
       </c>
       <c r="BE10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>384</v>
       </c>
       <c r="BF10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>383</v>
       </c>
       <c r="BG10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>382</v>
       </c>
       <c r="BH10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>381</v>
       </c>
       <c r="BI10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>380</v>
       </c>
       <c r="BJ10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>379</v>
       </c>
       <c r="BK10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>378</v>
       </c>
       <c r="BL10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>377</v>
       </c>
       <c r="BM10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>376</v>
       </c>
       <c r="BN10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>375</v>
       </c>
       <c r="BO10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>374</v>
       </c>
       <c r="BP10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>373</v>
       </c>
       <c r="BQ10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>372</v>
       </c>
       <c r="BR10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>371</v>
       </c>
       <c r="BS10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>370</v>
       </c>
       <c r="BT10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>369</v>
       </c>
       <c r="BU10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>368</v>
       </c>
       <c r="BV10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>367</v>
       </c>
       <c r="BW10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>366</v>
       </c>
       <c r="BX10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>365</v>
       </c>
       <c r="BY10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>364</v>
       </c>
       <c r="BZ10" s="8"/>
@@ -17380,288 +17380,288 @@
     <row r="11" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="4">
-        <f>C13+4</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" ref="D11:F11" si="7">D13+4</f>
+        <f t="shared" ref="D11:F11" si="10">D13+4</f>
         <v>21</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="4">
-        <f>J13+66</f>
+        <f t="shared" si="5"/>
         <v>331</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>332</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>333</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>334</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>335</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>336</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>337</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>338</v>
       </c>
       <c r="R11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>339</v>
       </c>
       <c r="S11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>340</v>
       </c>
       <c r="T11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>341</v>
       </c>
       <c r="U11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>342</v>
       </c>
       <c r="V11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>343</v>
       </c>
       <c r="W11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>344</v>
       </c>
       <c r="X11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>345</v>
       </c>
       <c r="Y11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>346</v>
       </c>
       <c r="Z11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>347</v>
       </c>
       <c r="AA11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>348</v>
       </c>
       <c r="AB11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>349</v>
       </c>
       <c r="AC11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="AD11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>351</v>
       </c>
       <c r="AE11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>352</v>
       </c>
       <c r="AF11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>353</v>
       </c>
       <c r="AG11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>354</v>
       </c>
       <c r="AH11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>355</v>
       </c>
       <c r="AI11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>356</v>
       </c>
       <c r="AJ11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>357</v>
       </c>
       <c r="AK11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>358</v>
       </c>
       <c r="AL11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>359</v>
       </c>
       <c r="AM11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>360</v>
       </c>
       <c r="AN11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>361</v>
       </c>
       <c r="AO11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>362</v>
       </c>
       <c r="AP11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>363</v>
       </c>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="8"/>
       <c r="AS11" s="4">
-        <f>AS13+66</f>
+        <f t="shared" si="7"/>
         <v>331</v>
       </c>
       <c r="AT11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>332</v>
       </c>
       <c r="AU11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>333</v>
       </c>
       <c r="AV11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>334</v>
       </c>
       <c r="AW11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>335</v>
       </c>
       <c r="AX11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>336</v>
       </c>
       <c r="AY11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>337</v>
       </c>
       <c r="AZ11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>338</v>
       </c>
       <c r="BA11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>339</v>
       </c>
       <c r="BB11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>340</v>
       </c>
       <c r="BC11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>341</v>
       </c>
       <c r="BD11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>342</v>
       </c>
       <c r="BE11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>343</v>
       </c>
       <c r="BF11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>344</v>
       </c>
       <c r="BG11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>345</v>
       </c>
       <c r="BH11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>346</v>
       </c>
       <c r="BI11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>347</v>
       </c>
       <c r="BJ11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>348</v>
       </c>
       <c r="BK11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>349</v>
       </c>
       <c r="BL11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>350</v>
       </c>
       <c r="BM11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>351</v>
       </c>
       <c r="BN11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>352</v>
       </c>
       <c r="BO11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>353</v>
       </c>
       <c r="BP11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>354</v>
       </c>
       <c r="BQ11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>355</v>
       </c>
       <c r="BR11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>356</v>
       </c>
       <c r="BS11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>357</v>
       </c>
       <c r="BT11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>358</v>
       </c>
       <c r="BU11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>359</v>
       </c>
       <c r="BV11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>360</v>
       </c>
       <c r="BW11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>361</v>
       </c>
       <c r="BX11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>362</v>
       </c>
       <c r="BY11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>363</v>
       </c>
       <c r="BZ11" s="8"/>
@@ -17670,288 +17670,288 @@
     <row r="12" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="4">
-        <f>C14+4</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" ref="D12:F12" si="8">D14+4</f>
+        <f t="shared" ref="D12:F12" si="11">D14+4</f>
         <v>20</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="4">
-        <f>J14+66</f>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>329</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>328</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>327</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>326</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>325</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>324</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>323</v>
       </c>
       <c r="R12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>322</v>
       </c>
       <c r="S12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>321</v>
       </c>
       <c r="T12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>320</v>
       </c>
       <c r="U12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>319</v>
       </c>
       <c r="V12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>318</v>
       </c>
       <c r="W12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>317</v>
       </c>
       <c r="X12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>316</v>
       </c>
       <c r="Y12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>315</v>
       </c>
       <c r="Z12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>314</v>
       </c>
       <c r="AA12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>313</v>
       </c>
       <c r="AB12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>312</v>
       </c>
       <c r="AC12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>311</v>
       </c>
       <c r="AD12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>310</v>
       </c>
       <c r="AE12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>309</v>
       </c>
       <c r="AF12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>308</v>
       </c>
       <c r="AG12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>307</v>
       </c>
       <c r="AH12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>306</v>
       </c>
       <c r="AI12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>305</v>
       </c>
       <c r="AJ12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>304</v>
       </c>
       <c r="AK12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>303</v>
       </c>
       <c r="AL12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>302</v>
       </c>
       <c r="AM12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>301</v>
       </c>
       <c r="AN12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="AO12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>299</v>
       </c>
       <c r="AP12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>298</v>
       </c>
       <c r="AQ12" s="8"/>
       <c r="AR12" s="8"/>
       <c r="AS12" s="4">
-        <f>AS14+66</f>
+        <f t="shared" si="7"/>
         <v>330</v>
       </c>
       <c r="AT12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>329</v>
       </c>
       <c r="AU12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>328</v>
       </c>
       <c r="AV12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>327</v>
       </c>
       <c r="AW12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>326</v>
       </c>
       <c r="AX12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>325</v>
       </c>
       <c r="AY12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>324</v>
       </c>
       <c r="AZ12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>323</v>
       </c>
       <c r="BA12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>322</v>
       </c>
       <c r="BB12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>321</v>
       </c>
       <c r="BC12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>320</v>
       </c>
       <c r="BD12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>319</v>
       </c>
       <c r="BE12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>318</v>
       </c>
       <c r="BF12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>317</v>
       </c>
       <c r="BG12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>316</v>
       </c>
       <c r="BH12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>315</v>
       </c>
       <c r="BI12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>314</v>
       </c>
       <c r="BJ12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>313</v>
       </c>
       <c r="BK12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>312</v>
       </c>
       <c r="BL12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>311</v>
       </c>
       <c r="BM12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>310</v>
       </c>
       <c r="BN12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>309</v>
       </c>
       <c r="BO12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>308</v>
       </c>
       <c r="BP12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>307</v>
       </c>
       <c r="BQ12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>306</v>
       </c>
       <c r="BR12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>305</v>
       </c>
       <c r="BS12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>304</v>
       </c>
       <c r="BT12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>303</v>
       </c>
       <c r="BU12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>302</v>
       </c>
       <c r="BV12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>301</v>
       </c>
       <c r="BW12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="BX12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>299</v>
       </c>
       <c r="BY12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>298</v>
       </c>
       <c r="BZ12" s="8"/>
@@ -17960,288 +17960,288 @@
     <row r="13" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="4">
-        <f>C15+4</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" ref="D13:F13" si="9">D15+4</f>
+        <f t="shared" ref="D13:F13" si="12">D15+4</f>
         <v>17</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="4">
-        <f>J15+66</f>
+        <f t="shared" si="5"/>
         <v>265</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>266</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>267</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>268</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>269</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>270</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>271</v>
       </c>
       <c r="Q13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>272</v>
       </c>
       <c r="R13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>273</v>
       </c>
       <c r="S13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>274</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>275</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>276</v>
       </c>
       <c r="V13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>277</v>
       </c>
       <c r="W13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>278</v>
       </c>
       <c r="X13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>279</v>
       </c>
       <c r="Y13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>280</v>
       </c>
       <c r="Z13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>281</v>
       </c>
       <c r="AA13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>282</v>
       </c>
       <c r="AB13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>283</v>
       </c>
       <c r="AC13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>284</v>
       </c>
       <c r="AD13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>285</v>
       </c>
       <c r="AE13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>286</v>
       </c>
       <c r="AF13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>287</v>
       </c>
       <c r="AG13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>288</v>
       </c>
       <c r="AH13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>289</v>
       </c>
       <c r="AI13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>290</v>
       </c>
       <c r="AJ13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>291</v>
       </c>
       <c r="AK13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>292</v>
       </c>
       <c r="AL13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>293</v>
       </c>
       <c r="AM13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>294</v>
       </c>
       <c r="AN13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>295</v>
       </c>
       <c r="AO13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>296</v>
       </c>
       <c r="AP13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>297</v>
       </c>
       <c r="AQ13" s="8"/>
       <c r="AR13" s="8"/>
       <c r="AS13" s="4">
-        <f>AS15+66</f>
+        <f t="shared" si="7"/>
         <v>265</v>
       </c>
       <c r="AT13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>266</v>
       </c>
       <c r="AU13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>267</v>
       </c>
       <c r="AV13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>268</v>
       </c>
       <c r="AW13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>269</v>
       </c>
       <c r="AX13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
       <c r="AY13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>271</v>
       </c>
       <c r="AZ13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>272</v>
       </c>
       <c r="BA13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>273</v>
       </c>
       <c r="BB13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>274</v>
       </c>
       <c r="BC13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>275</v>
       </c>
       <c r="BD13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>276</v>
       </c>
       <c r="BE13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>277</v>
       </c>
       <c r="BF13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>278</v>
       </c>
       <c r="BG13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>279</v>
       </c>
       <c r="BH13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>280</v>
       </c>
       <c r="BI13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>281</v>
       </c>
       <c r="BJ13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>282</v>
       </c>
       <c r="BK13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>283</v>
       </c>
       <c r="BL13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>284</v>
       </c>
       <c r="BM13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>285</v>
       </c>
       <c r="BN13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>286</v>
       </c>
       <c r="BO13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>287</v>
       </c>
       <c r="BP13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>288</v>
       </c>
       <c r="BQ13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>289</v>
       </c>
       <c r="BR13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>290</v>
       </c>
       <c r="BS13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>291</v>
       </c>
       <c r="BT13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>292</v>
       </c>
       <c r="BU13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>293</v>
       </c>
       <c r="BV13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>294</v>
       </c>
       <c r="BW13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>295</v>
       </c>
       <c r="BX13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>296</v>
       </c>
       <c r="BY13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>297</v>
       </c>
       <c r="BZ13" s="8"/>
@@ -18250,288 +18250,288 @@
     <row r="14" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="4">
-        <f>C16+4</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" ref="D14:F14" si="10">D16+4</f>
+        <f t="shared" ref="D14:F14" si="13">D16+4</f>
         <v>16</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="4">
-        <f>J16+66</f>
+        <f t="shared" si="5"/>
         <v>264</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>263</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>262</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>261</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>260</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>259</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>258</v>
       </c>
       <c r="Q14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>257</v>
       </c>
       <c r="R14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>256</v>
       </c>
       <c r="S14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="T14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>254</v>
       </c>
       <c r="U14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>253</v>
       </c>
       <c r="V14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>252</v>
       </c>
       <c r="W14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>251</v>
       </c>
       <c r="X14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="Y14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>249</v>
       </c>
       <c r="Z14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>248</v>
       </c>
       <c r="AA14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>247</v>
       </c>
       <c r="AB14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>246</v>
       </c>
       <c r="AC14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>245</v>
       </c>
       <c r="AD14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>244</v>
       </c>
       <c r="AE14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>243</v>
       </c>
       <c r="AF14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>242</v>
       </c>
       <c r="AG14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>241</v>
       </c>
       <c r="AH14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="AI14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>239</v>
       </c>
       <c r="AJ14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>238</v>
       </c>
       <c r="AK14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>237</v>
       </c>
       <c r="AL14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>236</v>
       </c>
       <c r="AM14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>235</v>
       </c>
       <c r="AN14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>234</v>
       </c>
       <c r="AO14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>233</v>
       </c>
       <c r="AP14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>232</v>
       </c>
       <c r="AQ14" s="8"/>
       <c r="AR14" s="8"/>
       <c r="AS14" s="4">
-        <f>AS16+66</f>
+        <f t="shared" si="7"/>
         <v>264</v>
       </c>
       <c r="AT14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>263</v>
       </c>
       <c r="AU14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>262</v>
       </c>
       <c r="AV14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>261</v>
       </c>
       <c r="AW14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>260</v>
       </c>
       <c r="AX14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>259</v>
       </c>
       <c r="AY14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>258</v>
       </c>
       <c r="AZ14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>257</v>
       </c>
       <c r="BA14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>256</v>
       </c>
       <c r="BB14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>255</v>
       </c>
       <c r="BC14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>254</v>
       </c>
       <c r="BD14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>253</v>
       </c>
       <c r="BE14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>252</v>
       </c>
       <c r="BF14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>251</v>
       </c>
       <c r="BG14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
       <c r="BH14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>249</v>
       </c>
       <c r="BI14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>248</v>
       </c>
       <c r="BJ14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>247</v>
       </c>
       <c r="BK14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>246</v>
       </c>
       <c r="BL14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>245</v>
       </c>
       <c r="BM14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>244</v>
       </c>
       <c r="BN14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>243</v>
       </c>
       <c r="BO14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>242</v>
       </c>
       <c r="BP14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>241</v>
       </c>
       <c r="BQ14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
       <c r="BR14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>239</v>
       </c>
       <c r="BS14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>238</v>
       </c>
       <c r="BT14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>237</v>
       </c>
       <c r="BU14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>236</v>
       </c>
       <c r="BV14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>235</v>
       </c>
       <c r="BW14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>234</v>
       </c>
       <c r="BX14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>233</v>
       </c>
       <c r="BY14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>232</v>
       </c>
       <c r="BZ14" s="8"/>
@@ -18540,288 +18540,288 @@
     <row r="15" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="4">
-        <f>C17+4</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" ref="D15:F15" si="11">D17+4</f>
+        <f t="shared" ref="D15:F15" si="14">D17+4</f>
         <v>13</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="4">
-        <f>J17+66</f>
+        <f t="shared" si="5"/>
         <v>199</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>201</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>202</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>203</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>204</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>205</v>
       </c>
       <c r="Q15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>206</v>
       </c>
       <c r="R15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>207</v>
       </c>
       <c r="S15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>208</v>
       </c>
       <c r="T15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>209</v>
       </c>
       <c r="U15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>210</v>
       </c>
       <c r="V15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>211</v>
       </c>
       <c r="W15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>212</v>
       </c>
       <c r="X15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>213</v>
       </c>
       <c r="Y15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>214</v>
       </c>
       <c r="Z15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>215</v>
       </c>
       <c r="AA15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>216</v>
       </c>
       <c r="AB15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>217</v>
       </c>
       <c r="AC15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>218</v>
       </c>
       <c r="AD15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>219</v>
       </c>
       <c r="AE15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>220</v>
       </c>
       <c r="AF15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>221</v>
       </c>
       <c r="AG15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>222</v>
       </c>
       <c r="AH15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>223</v>
       </c>
       <c r="AI15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>224</v>
       </c>
       <c r="AJ15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="AK15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>226</v>
       </c>
       <c r="AL15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>227</v>
       </c>
       <c r="AM15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>228</v>
       </c>
       <c r="AN15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>229</v>
       </c>
       <c r="AO15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>230</v>
       </c>
       <c r="AP15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>231</v>
       </c>
       <c r="AQ15" s="8"/>
       <c r="AR15" s="8"/>
       <c r="AS15" s="4">
-        <f>AS17+66</f>
+        <f t="shared" si="7"/>
         <v>199</v>
       </c>
       <c r="AT15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="AU15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>201</v>
       </c>
       <c r="AV15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>202</v>
       </c>
       <c r="AW15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>203</v>
       </c>
       <c r="AX15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>204</v>
       </c>
       <c r="AY15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>205</v>
       </c>
       <c r="AZ15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>206</v>
       </c>
       <c r="BA15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>207</v>
       </c>
       <c r="BB15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>208</v>
       </c>
       <c r="BC15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>209</v>
       </c>
       <c r="BD15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
       <c r="BE15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>211</v>
       </c>
       <c r="BF15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>212</v>
       </c>
       <c r="BG15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>213</v>
       </c>
       <c r="BH15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>214</v>
       </c>
       <c r="BI15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>215</v>
       </c>
       <c r="BJ15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>216</v>
       </c>
       <c r="BK15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>217</v>
       </c>
       <c r="BL15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>218</v>
       </c>
       <c r="BM15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>219</v>
       </c>
       <c r="BN15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>220</v>
       </c>
       <c r="BO15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>221</v>
       </c>
       <c r="BP15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>222</v>
       </c>
       <c r="BQ15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>223</v>
       </c>
       <c r="BR15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>224</v>
       </c>
       <c r="BS15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>225</v>
       </c>
       <c r="BT15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>226</v>
       </c>
       <c r="BU15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>227</v>
       </c>
       <c r="BV15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>228</v>
       </c>
       <c r="BW15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>229</v>
       </c>
       <c r="BX15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>230</v>
       </c>
       <c r="BY15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>231</v>
       </c>
       <c r="BZ15" s="8"/>
@@ -18830,288 +18830,288 @@
     <row r="16" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="4">
-        <f>C18+4</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" ref="D16:F16" si="12">D18+4</f>
+        <f t="shared" ref="D16:F16" si="15">D18+4</f>
         <v>12</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="4">
-        <f>J18+66</f>
+        <f t="shared" si="5"/>
         <v>198</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>197</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>196</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>195</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>194</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>193</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>192</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>191</v>
       </c>
       <c r="R16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
       <c r="S16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>189</v>
       </c>
       <c r="T16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>188</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>187</v>
       </c>
       <c r="V16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>186</v>
       </c>
       <c r="W16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="X16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>184</v>
       </c>
       <c r="Y16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>183</v>
       </c>
       <c r="Z16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>182</v>
       </c>
       <c r="AA16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>181</v>
       </c>
       <c r="AB16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="AC16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>179</v>
       </c>
       <c r="AD16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>178</v>
       </c>
       <c r="AE16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>177</v>
       </c>
       <c r="AF16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>176</v>
       </c>
       <c r="AG16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>175</v>
       </c>
       <c r="AH16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>174</v>
       </c>
       <c r="AI16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>173</v>
       </c>
       <c r="AJ16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>172</v>
       </c>
       <c r="AK16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>171</v>
       </c>
       <c r="AL16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="AM16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>169</v>
       </c>
       <c r="AN16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>168</v>
       </c>
       <c r="AO16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>167</v>
       </c>
       <c r="AP16" s="4">
-        <f t="shared" ref="K16:AP19" si="13">AP18+66</f>
+        <f t="shared" ref="K16:AP19" si="16">AP18+66</f>
         <v>166</v>
       </c>
       <c r="AQ16" s="8"/>
       <c r="AR16" s="8"/>
       <c r="AS16" s="4">
-        <f>AS18+66</f>
+        <f t="shared" si="7"/>
         <v>198</v>
       </c>
       <c r="AT16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>197</v>
       </c>
       <c r="AU16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>196</v>
       </c>
       <c r="AV16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>195</v>
       </c>
       <c r="AW16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>194</v>
       </c>
       <c r="AX16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>193</v>
       </c>
       <c r="AY16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="AZ16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>191</v>
       </c>
       <c r="BA16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>190</v>
       </c>
       <c r="BB16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>189</v>
       </c>
       <c r="BC16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>188</v>
       </c>
       <c r="BD16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>187</v>
       </c>
       <c r="BE16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>186</v>
       </c>
       <c r="BF16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>185</v>
       </c>
       <c r="BG16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>184</v>
       </c>
       <c r="BH16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>183</v>
       </c>
       <c r="BI16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>182</v>
       </c>
       <c r="BJ16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>181</v>
       </c>
       <c r="BK16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
       <c r="BL16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>179</v>
       </c>
       <c r="BM16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>178</v>
       </c>
       <c r="BN16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>177</v>
       </c>
       <c r="BO16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>176</v>
       </c>
       <c r="BP16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>175</v>
       </c>
       <c r="BQ16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>174</v>
       </c>
       <c r="BR16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>173</v>
       </c>
       <c r="BS16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>172</v>
       </c>
       <c r="BT16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>171</v>
       </c>
       <c r="BU16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>170</v>
       </c>
       <c r="BV16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>169</v>
       </c>
       <c r="BW16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>168</v>
       </c>
       <c r="BX16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>167</v>
       </c>
       <c r="BY16" s="4">
-        <f t="shared" ref="AT16:BY19" si="14">BY18+66</f>
+        <f t="shared" ref="AT16:BY19" si="17">BY18+66</f>
         <v>166</v>
       </c>
       <c r="BZ16" s="8"/>
@@ -19120,288 +19120,288 @@
     <row r="17" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="4">
-        <f>C19+4</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" ref="D17:F17" si="15">D19+4</f>
+        <f t="shared" ref="D17:F17" si="18">D19+4</f>
         <v>9</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="4">
-        <f>J19+66</f>
+        <f t="shared" si="5"/>
         <v>133</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>134</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>135</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>136</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>137</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>138</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>139</v>
       </c>
       <c r="Q17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>140</v>
       </c>
       <c r="R17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>141</v>
       </c>
       <c r="S17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>142</v>
       </c>
       <c r="T17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>143</v>
       </c>
       <c r="U17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>144</v>
       </c>
       <c r="V17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>145</v>
       </c>
       <c r="W17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>146</v>
       </c>
       <c r="X17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>147</v>
       </c>
       <c r="Y17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>148</v>
       </c>
       <c r="Z17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>149</v>
       </c>
       <c r="AA17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="AB17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>151</v>
       </c>
       <c r="AC17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="AD17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>153</v>
       </c>
       <c r="AE17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>154</v>
       </c>
       <c r="AF17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>155</v>
       </c>
       <c r="AG17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>156</v>
       </c>
       <c r="AH17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>157</v>
       </c>
       <c r="AI17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>158</v>
       </c>
       <c r="AJ17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>159</v>
       </c>
       <c r="AK17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>160</v>
       </c>
       <c r="AL17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>161</v>
       </c>
       <c r="AM17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>162</v>
       </c>
       <c r="AN17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>163</v>
       </c>
       <c r="AO17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>164</v>
       </c>
       <c r="AP17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>165</v>
       </c>
       <c r="AQ17" s="8"/>
       <c r="AR17" s="8"/>
       <c r="AS17" s="4">
-        <f>AS19+66</f>
+        <f t="shared" si="7"/>
         <v>133</v>
       </c>
       <c r="AT17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>134</v>
       </c>
       <c r="AU17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>135</v>
       </c>
       <c r="AV17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>136</v>
       </c>
       <c r="AW17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>137</v>
       </c>
       <c r="AX17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>138</v>
       </c>
       <c r="AY17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>139</v>
       </c>
       <c r="AZ17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>140</v>
       </c>
       <c r="BA17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>141</v>
       </c>
       <c r="BB17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>142</v>
       </c>
       <c r="BC17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>143</v>
       </c>
       <c r="BD17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>144</v>
       </c>
       <c r="BE17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>145</v>
       </c>
       <c r="BF17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>146</v>
       </c>
       <c r="BG17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>147</v>
       </c>
       <c r="BH17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>148</v>
       </c>
       <c r="BI17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>149</v>
       </c>
       <c r="BJ17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="BK17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>151</v>
       </c>
       <c r="BL17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>152</v>
       </c>
       <c r="BM17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>153</v>
       </c>
       <c r="BN17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>154</v>
       </c>
       <c r="BO17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>155</v>
       </c>
       <c r="BP17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>156</v>
       </c>
       <c r="BQ17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>157</v>
       </c>
       <c r="BR17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>158</v>
       </c>
       <c r="BS17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>159</v>
       </c>
       <c r="BT17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>160</v>
       </c>
       <c r="BU17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>161</v>
       </c>
       <c r="BV17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>162</v>
       </c>
       <c r="BW17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>163</v>
       </c>
       <c r="BX17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>164</v>
       </c>
       <c r="BY17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>165</v>
       </c>
       <c r="BZ17" s="8"/>
@@ -19410,288 +19410,288 @@
     <row r="18" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="4">
-        <f>C20+4</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" ref="D18:F18" si="16">D20+4</f>
+        <f t="shared" ref="D18:F18" si="19">D20+4</f>
         <v>8</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="4">
-        <f>J20+66</f>
+        <f t="shared" si="5"/>
         <v>132</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>131</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>130</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>129</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>128</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>127</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>126</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>125</v>
       </c>
       <c r="R18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>124</v>
       </c>
       <c r="S18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>123</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>122</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>121</v>
       </c>
       <c r="V18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>120</v>
       </c>
       <c r="W18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>119</v>
       </c>
       <c r="X18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>118</v>
       </c>
       <c r="Y18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>117</v>
       </c>
       <c r="Z18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>116</v>
       </c>
       <c r="AA18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>115</v>
       </c>
       <c r="AB18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>114</v>
       </c>
       <c r="AC18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>113</v>
       </c>
       <c r="AD18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>112</v>
       </c>
       <c r="AE18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>111</v>
       </c>
       <c r="AF18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>110</v>
       </c>
       <c r="AG18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>109</v>
       </c>
       <c r="AH18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>108</v>
       </c>
       <c r="AI18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>107</v>
       </c>
       <c r="AJ18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>106</v>
       </c>
       <c r="AK18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>105</v>
       </c>
       <c r="AL18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>104</v>
       </c>
       <c r="AM18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>103</v>
       </c>
       <c r="AN18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>102</v>
       </c>
       <c r="AO18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>101</v>
       </c>
       <c r="AP18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="AQ18" s="8"/>
       <c r="AR18" s="8"/>
       <c r="AS18" s="4">
-        <f>AS20+66</f>
+        <f t="shared" si="7"/>
         <v>132</v>
       </c>
       <c r="AT18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>131</v>
       </c>
       <c r="AU18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>130</v>
       </c>
       <c r="AV18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>129</v>
       </c>
       <c r="AW18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>128</v>
       </c>
       <c r="AX18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>127</v>
       </c>
       <c r="AY18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>126</v>
       </c>
       <c r="AZ18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>125</v>
       </c>
       <c r="BA18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>124</v>
       </c>
       <c r="BB18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>123</v>
       </c>
       <c r="BC18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>122</v>
       </c>
       <c r="BD18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>121</v>
       </c>
       <c r="BE18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
       <c r="BF18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>119</v>
       </c>
       <c r="BG18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>118</v>
       </c>
       <c r="BH18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>117</v>
       </c>
       <c r="BI18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>116</v>
       </c>
       <c r="BJ18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>115</v>
       </c>
       <c r="BK18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>114</v>
       </c>
       <c r="BL18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>113</v>
       </c>
       <c r="BM18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>112</v>
       </c>
       <c r="BN18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>111</v>
       </c>
       <c r="BO18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>110</v>
       </c>
       <c r="BP18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>109</v>
       </c>
       <c r="BQ18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>108</v>
       </c>
       <c r="BR18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>107</v>
       </c>
       <c r="BS18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>106</v>
       </c>
       <c r="BT18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>105</v>
       </c>
       <c r="BU18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>104</v>
       </c>
       <c r="BV18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>103</v>
       </c>
       <c r="BW18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>102</v>
       </c>
       <c r="BX18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>101</v>
       </c>
       <c r="BY18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="BZ18" s="8"/>
@@ -19700,288 +19700,288 @@
     <row r="19" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="4">
-        <f>C21+4</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" ref="D19:F19" si="17">D21+4</f>
+        <f t="shared" ref="D19:F19" si="20">D21+4</f>
         <v>5</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="4">
-        <f>J21+66</f>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>68</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>69</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>70</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>71</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>72</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>73</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>74</v>
       </c>
       <c r="R19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>75</v>
       </c>
       <c r="S19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>76</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>77</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>78</v>
       </c>
       <c r="V19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>79</v>
       </c>
       <c r="W19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>80</v>
       </c>
       <c r="X19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>81</v>
       </c>
       <c r="Y19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>82</v>
       </c>
       <c r="Z19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>83</v>
       </c>
       <c r="AA19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>84</v>
       </c>
       <c r="AB19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>85</v>
       </c>
       <c r="AC19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>86</v>
       </c>
       <c r="AD19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>87</v>
       </c>
       <c r="AE19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>88</v>
       </c>
       <c r="AF19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>89</v>
       </c>
       <c r="AG19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="AH19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>91</v>
       </c>
       <c r="AI19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>92</v>
       </c>
       <c r="AJ19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>93</v>
       </c>
       <c r="AK19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>94</v>
       </c>
       <c r="AL19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>95</v>
       </c>
       <c r="AM19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>96</v>
       </c>
       <c r="AN19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>97</v>
       </c>
       <c r="AO19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>98</v>
       </c>
       <c r="AP19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>99</v>
       </c>
       <c r="AQ19" s="8"/>
       <c r="AR19" s="8"/>
       <c r="AS19" s="4">
-        <f>AS21+66</f>
+        <f t="shared" si="7"/>
         <v>67</v>
       </c>
       <c r="AT19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>68</v>
       </c>
       <c r="AU19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>69</v>
       </c>
       <c r="AV19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>70</v>
       </c>
       <c r="AW19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>71</v>
       </c>
       <c r="AX19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>72</v>
       </c>
       <c r="AY19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>73</v>
       </c>
       <c r="AZ19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>74</v>
       </c>
       <c r="BA19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>75</v>
       </c>
       <c r="BB19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>76</v>
       </c>
       <c r="BC19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>77</v>
       </c>
       <c r="BD19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>78</v>
       </c>
       <c r="BE19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>79</v>
       </c>
       <c r="BF19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>80</v>
       </c>
       <c r="BG19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>81</v>
       </c>
       <c r="BH19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>82</v>
       </c>
       <c r="BI19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>83</v>
       </c>
       <c r="BJ19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>84</v>
       </c>
       <c r="BK19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>85</v>
       </c>
       <c r="BL19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>86</v>
       </c>
       <c r="BM19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>87</v>
       </c>
       <c r="BN19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>88</v>
       </c>
       <c r="BO19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>89</v>
       </c>
       <c r="BP19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>90</v>
       </c>
       <c r="BQ19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>91</v>
       </c>
       <c r="BR19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>92</v>
       </c>
       <c r="BS19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>93</v>
       </c>
       <c r="BT19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>94</v>
       </c>
       <c r="BU19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>95</v>
       </c>
       <c r="BV19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>96</v>
       </c>
       <c r="BW19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>97</v>
       </c>
       <c r="BX19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>98</v>
       </c>
       <c r="BY19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>99</v>
       </c>
       <c r="BZ19" s="8"/>

--- a/data/SOAP_2025_plan.xlsx
+++ b/data/SOAP_2025_plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2025_winter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F32EEDC-6B87-4FD8-A204-5CDD7C298A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3D274F-F79F-477A-B865-D9FD52D6279A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{E40B840D-8429-4970-ADCC-D0241BE16052}"/>
+    <workbookView xWindow="24" yWindow="0" windowWidth="23280" windowHeight="13200" activeTab="2" xr2:uid="{E40B840D-8429-4970-ADCC-D0241BE16052}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -16395,7 +16395,7 @@
   <dimension ref="B1:CA29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="R70" sqref="R70"/>
+      <selection activeCell="C8" sqref="C8:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
